--- a/quizsheets/mada_coding_basics_student.xlsx
+++ b/quizsheets/mada_coding_basics_student.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The R package forcats gives you functionality for what kind of topic. A) writing for-loops, B) managing you cat videos, C) forking github repositories  D) working with factors.</t>
+          <t>The R package forcats gives you functionality for what kind of topic. A) writing for-loops, B) managing your cat videos, C) forking github repositories  D) working with factors.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>In the dplyr package, the function select() let's you choose specific ROWS, the function filter() let's you choose specific COLUMNS.</t>
+          <t>In the dplyr package, the function select() lets you choose specific ROWS, the function filter() let's you choose specific COLUMNS.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>In the "Factors" chapter in R4DS, they use the fct_lump() function with default settings to combine the religion variable into fewer categories. How many categories do they end up with?</t>
+          <t>In the "Factors" chapter in R4DS, they use  fct_lump() with DEFAULT settings to combine the religion variable into fewer categories. How many categories do they end up with?</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
